--- a/documents/User_stories.xlsx
+++ b/documents/User_stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/n10465928_qut_edu_au/Documents/University/Year_6/Semester_2/CAB302/Assessment/CAB302-Group-0/Group Assignment/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leigh\IdeaProjects\cab302\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46FE11A6-8B9D-4005-A84D-342F72521417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C66548-3AE9-44A1-849E-7A2E1206AB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6D3B8D5-B5A5-4243-BA96-346BD25285EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6D3B8D5-B5A5-4243-BA96-346BD25285EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="143">
   <si>
     <t>Story ID</t>
   </si>
@@ -134,15 +134,6 @@
     <t>1. A customization screen allows users to change pet attributes (e.g., color, name). 2. Customizations are reflected in the pet’s profile.</t>
   </si>
   <si>
-    <t>Customize pet’s shelter/habitat</t>
-  </si>
-  <si>
-    <t>As a user, I want to customize my pet's habitat, so that I can improve its living space.</t>
-  </si>
-  <si>
-    <t>1. Options to change the pet’s shelter, toys, and environment are available. 2. Customizations are saved and visible in the pet’s profile.</t>
-  </si>
-  <si>
     <t>View all pets in user’s list</t>
   </si>
   <si>
@@ -420,6 +411,60 @@
   </si>
   <si>
     <t>1. Notifications appear as push notifications on mobile or desktop. 2. Notifications are triggered when the pet's mood or health drops. 3. Users can disable notifications.</t>
+  </si>
+  <si>
+    <t>Delete a pet</t>
+  </si>
+  <si>
+    <t>As a user, I want to delete older pets, so that I can manage space for new pets without deleting their care history.</t>
+  </si>
+  <si>
+    <t>1. A “delete Pet” option is available. 2. The retired pet is moved to an archive. 3. The pet’s care history is maintained in the archive.</t>
+  </si>
+  <si>
+    <t>Customize pet’s details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to customize my pet's details, so that I give it a new name, or personality </t>
+  </si>
+  <si>
+    <t>1. Options to change the pet’s name and personality available. 2. Customizations are saved and visible in the pet’s profile.</t>
+  </si>
+  <si>
+    <t>MOSCOW</t>
+  </si>
+  <si>
+    <t>MUST</t>
+  </si>
+  <si>
+    <t>SHOULD</t>
+  </si>
+  <si>
+    <t>COULD</t>
+  </si>
+  <si>
+    <t>WONT</t>
+  </si>
+  <si>
+    <t>Must have</t>
+  </si>
+  <si>
+    <t>Should have</t>
+  </si>
+  <si>
+    <t>Could have</t>
+  </si>
+  <si>
+    <t>Wont have</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>complete</t>
   </si>
 </sst>
 </file>
@@ -443,12 +488,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -537,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -563,23 +614,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,31 +971,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED15F91F-614E-40C9-9214-A2BB4AA14982}">
   <dimension ref="A1:BV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="74" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="1"/>
+    <col min="9" max="9" width="14.77734375" style="1" customWidth="1"/>
+    <col min="10" max="74" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="J2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -957,9 +1019,21 @@
       <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+      <c r="G3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="1">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -974,9 +1048,21 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="G4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -991,76 +1077,119 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="G5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="1">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+      <c r="G7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J7" s="1">
+        <f>SUM(J3:J6)</f>
+        <v>42</v>
+      </c>
+      <c r="K7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -1076,17 +1205,20 @@
       <c r="F10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="G10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
@@ -1103,46 +1235,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="14">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>12</v>
@@ -1153,13 +1291,16 @@
       <c r="F15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
+      <c r="G15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -1170,89 +1311,100 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
+      <c r="G17" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="15">
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="F18" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5">
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6" t="s">
         <v>0</v>
       </c>
@@ -1268,83 +1420,77 @@
       <c r="F22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="4">
+    </row>
+    <row r="23" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="14">
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="15">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="5">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="14">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="2">
-        <v>3</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="4">
-        <v>18</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>0</v>
       </c>
@@ -1360,83 +1506,77 @@
       <c r="F27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="5">
+    </row>
+    <row r="28" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="15">
         <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="14">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="2">
-        <v>3</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="4">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="15">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="3">
-        <v>3</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="5">
-        <v>21</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
@@ -1452,16 +1592,13 @@
       <c r="F32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="4">
+    </row>
+    <row r="33" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="14">
         <v>22</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>16</v>
@@ -1472,18 +1609,19 @@
       <c r="F33" s="3">
         <v>3</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="5">
+      <c r="G33" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="15">
         <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>18</v>
@@ -1491,19 +1629,19 @@
       <c r="F34" s="2">
         <v>2</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="4">
+      <c r="G34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B35" s="14">
         <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>19</v>
@@ -1511,15 +1649,16 @@
       <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="G35" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>25</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>20</v>
@@ -1530,15 +1669,16 @@
       <c r="F36" s="2">
         <v>2</v>
       </c>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="4">
+      <c r="G36" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B37" s="14">
         <v>26</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>22</v>
@@ -1549,15 +1689,16 @@
       <c r="F37" s="3">
         <v>2</v>
       </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="G37" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>24</v>
@@ -1568,57 +1709,40 @@
       <c r="F38" s="2">
         <v>3</v>
       </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
+      <c r="G38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="6" t="s">
         <v>0</v>
       </c>
@@ -1634,97 +1758,97 @@
       <c r="F44" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+    </row>
+    <row r="45" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="3">
-        <v>3</v>
-      </c>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="5">
-        <v>32</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="F46" s="2">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="4">
+        <v>30</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="F46" s="2">
-        <v>2</v>
-      </c>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="4">
-        <v>33</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="F47" s="3">
         <v>5</v>
       </c>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
+      <c r="G47" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="2">
-        <v>3</v>
-      </c>
-      <c r="G48" s="13"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="6" t="s">
         <v>0</v>
       </c>
@@ -1740,59 +1864,57 @@
       <c r="F50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+    </row>
+    <row r="51" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F51" s="3">
         <v>8</v>
       </c>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
+      <c r="G51" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" s="2">
-        <v>3</v>
-      </c>
-      <c r="G52" s="13"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="6" t="s">
         <v>0</v>
       </c>
@@ -1808,78 +1930,77 @@
       <c r="F54" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+    </row>
+    <row r="55" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B55" s="4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F55" s="3">
         <v>5</v>
       </c>
-      <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="G55" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="2">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="4">
+        <v>36</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="F56" s="2">
-        <v>3</v>
-      </c>
-      <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="4">
-        <v>39</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="F57" s="3">
         <v>5</v>
       </c>
-      <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="13"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
+      <c r="G57" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="6" t="s">
         <v>0</v>
       </c>
@@ -1895,78 +2016,77 @@
       <c r="F59" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+    </row>
+    <row r="60" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B60" s="5">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F60" s="2">
         <v>5</v>
       </c>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
+      <c r="G60" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B61" s="4">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="5">
+        <v>39</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="3">
-        <v>3</v>
-      </c>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="5">
-        <v>42</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="F62" s="2">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F62" s="2">
-        <v>3</v>
-      </c>
-      <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="6" t="s">
         <v>0</v>
       </c>
@@ -1982,61 +2102,73 @@
       <c r="F64" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="13"/>
-    </row>
-    <row r="65" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B66" s="5">
+        <v>41</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F65" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B66" s="5">
-        <v>44</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="F66" s="2">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="4">
+        <v>42</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E67" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="F66" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B67" s="4">
-        <v>45</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="F67" s="3">
         <v>5</v>
       </c>
+      <c r="G67" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B39:F39"/>
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="B63:F63"/>
@@ -2044,11 +2176,8 @@
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B39:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/User_stories.xlsx
+++ b/documents/User_stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leigh\IdeaProjects\cab302\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/n10465928_qut_edu_au/Documents/University/Year_6/Semester_2/CAB302/Assessment/CAB302-Group-0/Group Assignment/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C66548-3AE9-44A1-849E-7A2E1206AB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46FE11A6-8B9D-4005-A84D-342F72521417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6D3B8D5-B5A5-4243-BA96-346BD25285EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6D3B8D5-B5A5-4243-BA96-346BD25285EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="128">
   <si>
     <t>Story ID</t>
   </si>
@@ -134,6 +134,15 @@
     <t>1. A customization screen allows users to change pet attributes (e.g., color, name). 2. Customizations are reflected in the pet’s profile.</t>
   </si>
   <si>
+    <t>Customize pet’s shelter/habitat</t>
+  </si>
+  <si>
+    <t>As a user, I want to customize my pet's habitat, so that I can improve its living space.</t>
+  </si>
+  <si>
+    <t>1. Options to change the pet’s shelter, toys, and environment are available. 2. Customizations are saved and visible in the pet’s profile.</t>
+  </si>
+  <si>
     <t>View all pets in user’s list</t>
   </si>
   <si>
@@ -411,60 +420,6 @@
   </si>
   <si>
     <t>1. Notifications appear as push notifications on mobile or desktop. 2. Notifications are triggered when the pet's mood or health drops. 3. Users can disable notifications.</t>
-  </si>
-  <si>
-    <t>Delete a pet</t>
-  </si>
-  <si>
-    <t>As a user, I want to delete older pets, so that I can manage space for new pets without deleting their care history.</t>
-  </si>
-  <si>
-    <t>1. A “delete Pet” option is available. 2. The retired pet is moved to an archive. 3. The pet’s care history is maintained in the archive.</t>
-  </si>
-  <si>
-    <t>Customize pet’s details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I want to customize my pet's details, so that I give it a new name, or personality </t>
-  </si>
-  <si>
-    <t>1. Options to change the pet’s name and personality available. 2. Customizations are saved and visible in the pet’s profile.</t>
-  </si>
-  <si>
-    <t>MOSCOW</t>
-  </si>
-  <si>
-    <t>MUST</t>
-  </si>
-  <si>
-    <t>SHOULD</t>
-  </si>
-  <si>
-    <t>COULD</t>
-  </si>
-  <si>
-    <t>WONT</t>
-  </si>
-  <si>
-    <t>Must have</t>
-  </si>
-  <si>
-    <t>Should have</t>
-  </si>
-  <si>
-    <t>Could have</t>
-  </si>
-  <si>
-    <t>Wont have</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>complete</t>
   </si>
 </sst>
 </file>
@@ -488,18 +443,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -588,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -614,26 +563,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,39 +917,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED15F91F-614E-40C9-9214-A2BB4AA14982}">
   <dimension ref="A1:BV67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="1"/>
-    <col min="9" max="9" width="14.77734375" style="1" customWidth="1"/>
-    <col min="10" max="74" width="9.109375" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="74" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="J2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1019,21 +957,9 @@
       <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="1">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="14">
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1048,21 +974,9 @@
       <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="14">
+    </row>
+    <row r="5" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1077,119 +991,76 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
+    </row>
+    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J6" s="1">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
+    </row>
+    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="1">
-        <f>SUM(J3:J6)</f>
-        <v>42</v>
-      </c>
-      <c r="K7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="15">
+    </row>
+    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
+    </row>
+    <row r="9" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>7</v>
       </c>
@@ -1205,20 +1076,17 @@
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10" t="s">
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
@@ -1235,52 +1103,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="15">
+    </row>
+    <row r="14" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="14">
+    </row>
+    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>12</v>
@@ -1291,16 +1153,13 @@
       <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="15">
+    </row>
+    <row r="16" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -1311,100 +1170,89 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B18" s="15">
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2">
         <v>3</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
       <c r="B22" s="6" t="s">
         <v>0</v>
       </c>
@@ -1420,77 +1268,83 @@
       <c r="F22" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="14">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="4">
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B24" s="15">
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="5">
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="14">
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="4">
         <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
       <c r="B27" s="6" t="s">
         <v>0</v>
       </c>
@@ -1506,77 +1360,83 @@
       <c r="F27" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="15">
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="5">
         <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2">
         <v>3</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B29" s="14">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="4">
         <v>20</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="15">
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="5">
         <v>21</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2">
         <v>2</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
@@ -1592,13 +1452,16 @@
       <c r="F32" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="14">
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="4">
         <v>22</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>16</v>
@@ -1609,19 +1472,18 @@
       <c r="F33" s="3">
         <v>3</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B34" s="15">
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
         <v>23</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>18</v>
@@ -1629,19 +1491,19 @@
       <c r="F34" s="2">
         <v>2</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B35" s="14">
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="4">
         <v>24</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>19</v>
@@ -1649,16 +1511,15 @@
       <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
       <c r="B36" s="5">
         <v>25</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>20</v>
@@ -1669,16 +1530,15 @@
       <c r="F36" s="2">
         <v>2</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="14">
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="4">
         <v>26</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>22</v>
@@ -1689,16 +1549,15 @@
       <c r="F37" s="3">
         <v>2</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
       <c r="B38" s="5">
         <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>24</v>
@@ -1709,40 +1568,57 @@
       <c r="F38" s="2">
         <v>3</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
       <c r="B44" s="6" t="s">
         <v>0</v>
       </c>
@@ -1758,97 +1634,97 @@
       <c r="F44" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
       <c r="B45" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F45" s="3">
         <v>3</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
       <c r="B46" s="5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F46" s="2">
         <v>2</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
       <c r="B47" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F47" s="3">
         <v>5</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
       <c r="B48" s="5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F48" s="2">
         <v>3</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
       <c r="B50" s="6" t="s">
         <v>0</v>
       </c>
@@ -1864,57 +1740,59 @@
       <c r="F50" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
       <c r="B51" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F51" s="3">
         <v>8</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
       <c r="B52" s="5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F52" s="2">
         <v>3</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+      <c r="B53" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
       <c r="B54" s="6" t="s">
         <v>0</v>
       </c>
@@ -1930,77 +1808,78 @@
       <c r="F54" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
       <c r="B55" s="4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F55" s="3">
         <v>5</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
       <c r="B56" s="5">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F56" s="2">
         <v>3</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
       <c r="B57" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F57" s="3">
         <v>5</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
       <c r="B59" s="6" t="s">
         <v>0</v>
       </c>
@@ -2016,77 +1895,78 @@
       <c r="F59" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
       <c r="B60" s="5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F60" s="2">
         <v>5</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
       <c r="B61" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F61" s="3">
         <v>3</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
       <c r="B62" s="5">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F62" s="2">
         <v>3</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="64" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
+      <c r="B63" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
       <c r="B64" s="6" t="s">
         <v>0</v>
       </c>
@@ -2102,73 +1982,61 @@
       <c r="F64" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F65" s="3">
         <v>2</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="5">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F66" s="2">
         <v>3</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F67" s="3">
         <v>5</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B39:F39"/>
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="B63:F63"/>
@@ -2176,8 +2044,11 @@
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B39:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>